--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Macau_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Macau_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G466"/>
+  <dimension ref="A1:G468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12101,6 +12101,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MOM2</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>726812580000</v>
+      </c>
+      <c r="D467" t="n">
+        <v>726812580000</v>
+      </c>
+      <c r="E467" t="n">
+        <v>726812580000</v>
+      </c>
+      <c r="F467" t="n">
+        <v>726812580000</v>
+      </c>
+      <c r="G467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MOM2</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>723226840000</v>
+      </c>
+      <c r="D468" t="n">
+        <v>723226840000</v>
+      </c>
+      <c r="E468" t="n">
+        <v>723226840000</v>
+      </c>
+      <c r="F468" t="n">
+        <v>723226840000</v>
+      </c>
+      <c r="G468" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Macau_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Macau_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G468"/>
+  <dimension ref="A1:G469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12151,6 +12151,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="469">
+      <c r="A469" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MOM2</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>713559810000</v>
+      </c>
+      <c r="D469" t="n">
+        <v>713559810000</v>
+      </c>
+      <c r="E469" t="n">
+        <v>713559810000</v>
+      </c>
+      <c r="F469" t="n">
+        <v>713559810000</v>
+      </c>
+      <c r="G469" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Macau_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Macau_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G469"/>
+  <dimension ref="A1:G470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,7 +728,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>31138.41666666667</v>
+        <v>31138.45833333333</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>31503.41666666667</v>
+        <v>31503.45833333333</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>31868.41666666667</v>
+        <v>31868.45833333333</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>32234.41666666667</v>
+        <v>32234.45833333333</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>32599.41666666667</v>
+        <v>32599.45833333333</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>32782.41666666666</v>
+        <v>32782.45833333334</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>33329.41666666666</v>
+        <v>33329.45833333334</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>33664.41666666666</v>
+        <v>33664.45833333334</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>33695.41666666666</v>
+        <v>33695.45833333334</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>34060.41666666666</v>
+        <v>34060.45833333334</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>34425.41666666666</v>
+        <v>34425.45833333334</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>717857231000</v>
+        <v>717868353000</v>
       </c>
       <c r="D464" t="n">
-        <v>717857231000</v>
+        <v>717868353000</v>
       </c>
       <c r="E464" t="n">
-        <v>717857231000</v>
+        <v>717868353000</v>
       </c>
       <c r="F464" t="n">
-        <v>717857231000</v>
+        <v>717868353000</v>
       </c>
       <c r="G464" t="n">
         <v>0</v>
@@ -12111,16 +12111,16 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>726812580000</v>
+        <v>726196941000</v>
       </c>
       <c r="D467" t="n">
-        <v>726812580000</v>
+        <v>726196941000</v>
       </c>
       <c r="E467" t="n">
-        <v>726812580000</v>
+        <v>726196941000</v>
       </c>
       <c r="F467" t="n">
-        <v>726812580000</v>
+        <v>726196941000</v>
       </c>
       <c r="G467" t="n">
         <v>0</v>
@@ -12136,16 +12136,16 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>723226840000</v>
+        <v>723226837000</v>
       </c>
       <c r="D468" t="n">
-        <v>723226840000</v>
+        <v>723226837000</v>
       </c>
       <c r="E468" t="n">
-        <v>723226840000</v>
+        <v>723226837000</v>
       </c>
       <c r="F468" t="n">
-        <v>723226840000</v>
+        <v>723226837000</v>
       </c>
       <c r="G468" t="n">
         <v>0</v>
@@ -12161,18 +12161,43 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>713559810000</v>
+        <v>713359810000</v>
       </c>
       <c r="D469" t="n">
-        <v>713559810000</v>
+        <v>713359810000</v>
       </c>
       <c r="E469" t="n">
-        <v>713559810000</v>
+        <v>713359810000</v>
       </c>
       <c r="F469" t="n">
-        <v>713559810000</v>
+        <v>713359810000</v>
       </c>
       <c r="G469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MOM2</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>717217430000</v>
+      </c>
+      <c r="D470" t="n">
+        <v>717217430000</v>
+      </c>
+      <c r="E470" t="n">
+        <v>717217430000</v>
+      </c>
+      <c r="F470" t="n">
+        <v>717217430000</v>
+      </c>
+      <c r="G470" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Macau_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Macau_M2.xlsx
@@ -728,7 +728,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>31138.45833333333</v>
+        <v>31138.41666666667</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>31503.45833333333</v>
+        <v>31503.41666666667</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>31868.45833333333</v>
+        <v>31868.41666666667</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>32234.45833333333</v>
+        <v>32234.41666666667</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>32599.45833333333</v>
+        <v>32599.41666666667</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>32782.45833333334</v>
+        <v>32782.41666666666</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>33329.45833333334</v>
+        <v>33329.41666666666</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>33664.45833333334</v>
+        <v>33664.41666666666</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>33695.45833333334</v>
+        <v>33695.41666666666</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>34060.45833333334</v>
+        <v>34060.41666666666</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Macau_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Macau_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G470"/>
+  <dimension ref="A1:G473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12161,16 +12161,16 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>713359810000</v>
+        <v>713359814000</v>
       </c>
       <c r="D469" t="n">
-        <v>713359810000</v>
+        <v>713359814000</v>
       </c>
       <c r="E469" t="n">
-        <v>713359810000</v>
+        <v>713359814000</v>
       </c>
       <c r="F469" t="n">
-        <v>713359810000</v>
+        <v>713359814000</v>
       </c>
       <c r="G469" t="n">
         <v>0</v>
@@ -12198,6 +12198,81 @@
         <v>717217430000</v>
       </c>
       <c r="G470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MOM2</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>725593240000</v>
+      </c>
+      <c r="D471" t="n">
+        <v>725593240000</v>
+      </c>
+      <c r="E471" t="n">
+        <v>725593240000</v>
+      </c>
+      <c r="F471" t="n">
+        <v>725593240000</v>
+      </c>
+      <c r="G471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MOM2</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>723739340000</v>
+      </c>
+      <c r="D472" t="n">
+        <v>723739340000</v>
+      </c>
+      <c r="E472" t="n">
+        <v>723739340000</v>
+      </c>
+      <c r="F472" t="n">
+        <v>723739340000</v>
+      </c>
+      <c r="G472" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MOM2</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>727283340000</v>
+      </c>
+      <c r="D473" t="n">
+        <v>727283340000</v>
+      </c>
+      <c r="E473" t="n">
+        <v>727283340000</v>
+      </c>
+      <c r="F473" t="n">
+        <v>727283340000</v>
+      </c>
+      <c r="G473" t="n">
         <v>0</v>
       </c>
     </row>
